--- a/document/股票/贷款还款计划.xlsx
+++ b/document/股票/贷款还款计划.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mm\document\workspcaceYinker\ReadFile\document\股票\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="福顺尚景" sheetId="1" r:id="rId1"/>
@@ -185,6 +190,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="29">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
@@ -199,24 +205,31 @@
     <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="访问过的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="普通" xfId="0" builtinId="0"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -544,11 +557,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView showRuler="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="59.5" bestFit="1" customWidth="1"/>
@@ -558,7 +571,7 @@
     <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -569,7 +582,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>41691</v>
       </c>
@@ -580,7 +593,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>41719</v>
       </c>
@@ -591,7 +604,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>41750</v>
       </c>
@@ -602,7 +615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>41780</v>
       </c>
@@ -616,7 +629,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>41811</v>
       </c>
@@ -627,7 +640,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>41841</v>
       </c>
@@ -638,7 +651,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>41872</v>
       </c>
@@ -646,7 +659,7 @@
         <v>4779.7700000000004</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>41903</v>
       </c>
@@ -654,7 +667,7 @@
         <v>4768.07</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>41933</v>
       </c>
@@ -662,7 +675,7 @@
         <v>4756.37</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>41964</v>
       </c>
@@ -670,7 +683,7 @@
         <v>4744.67</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>41994</v>
       </c>
@@ -678,7 +691,7 @@
         <v>4732.97</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>42025</v>
       </c>
@@ -689,7 +702,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>42056</v>
       </c>
@@ -697,7 +710,7 @@
         <v>4546.6400000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>42084</v>
       </c>
@@ -705,7 +718,7 @@
         <v>4535.6499999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>42115</v>
       </c>
@@ -713,7 +726,7 @@
         <v>4524.67</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>42145</v>
       </c>
@@ -721,7 +734,7 @@
         <v>4513.68</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>42176</v>
       </c>
@@ -729,7 +742,7 @@
         <v>4502.6899999999996</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>42206</v>
       </c>
@@ -737,7 +750,7 @@
         <v>4491.71</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>42237</v>
       </c>
@@ -745,7 +758,7 @@
         <v>4480.72</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>42268</v>
       </c>
@@ -753,7 +766,7 @@
         <v>4469.7299999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>42298</v>
       </c>
@@ -761,7 +774,7 @@
         <v>4458.75</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>42329</v>
       </c>
@@ -769,7 +782,7 @@
         <v>4447.76</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>42359</v>
       </c>
@@ -777,7 +790,7 @@
         <v>4436.7700000000004</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>42390</v>
       </c>
@@ -785,7 +798,7 @@
         <v>4118.8900000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>42421</v>
       </c>
@@ -793,7 +806,7 @@
         <v>3932.46</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>42450</v>
       </c>
@@ -801,7 +814,7 @@
         <v>3932.7</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>42481</v>
       </c>
@@ -809,7 +822,7 @@
         <v>3914.95</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>42511</v>
       </c>
@@ -817,7 +830,7 @@
         <v>3906.2</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>42542</v>
       </c>
@@ -825,7 +838,7 @@
         <v>3897.44</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>42572</v>
       </c>
@@ -833,7 +846,7 @@
         <v>3888.69</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>42603</v>
       </c>
@@ -841,7 +854,7 @@
         <v>3879.94</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>42634</v>
       </c>
@@ -849,7 +862,7 @@
         <v>3871.18</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>42664</v>
       </c>
@@ -857,7 +870,7 @@
         <v>3862.43</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
         <v>42695</v>
       </c>
@@ -865,7 +878,7 @@
         <v>3853.67</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1">
         <v>42725</v>
       </c>
@@ -873,7 +886,7 @@
         <v>3844.92</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
         <v>42756</v>
       </c>
@@ -881,7 +894,7 @@
         <v>3836.17</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
         <v>42787</v>
       </c>
@@ -889,7 +902,7 @@
         <v>3827.41</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
         <v>42815</v>
       </c>
@@ -897,7 +910,7 @@
         <v>3818.66</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
         <v>42846</v>
       </c>
@@ -905,7 +918,7 @@
         <v>3809.91</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
         <v>42876</v>
       </c>
@@ -913,7 +926,7 @@
         <v>3801.15</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
         <v>42907</v>
       </c>
@@ -921,7 +934,7 @@
         <v>3792.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
         <v>42937</v>
       </c>
@@ -929,7 +942,7 @@
         <v>3783.64</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
         <v>42968</v>
       </c>
@@ -937,7 +950,7 @@
         <v>3774.89</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
         <v>42999</v>
       </c>
@@ -945,7 +958,7 @@
         <v>3766.14</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
         <v>43029</v>
       </c>
@@ -953,7 +966,7 @@
         <v>3757.38</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
         <v>43056</v>
       </c>
@@ -970,12 +983,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>43090</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>43121</v>
       </c>
@@ -994,19 +1007,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="36.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1017,7 +1030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>42658</v>
       </c>
@@ -1028,7 +1041,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>42689</v>
       </c>
@@ -1039,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>42719</v>
       </c>
@@ -1050,7 +1063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>42750</v>
       </c>
@@ -1061,7 +1074,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>42781</v>
       </c>
@@ -1069,7 +1082,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>42809</v>
       </c>
@@ -1077,7 +1090,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>42840</v>
       </c>
@@ -1085,7 +1098,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>42870</v>
       </c>
@@ -1093,7 +1106,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>42901</v>
       </c>
@@ -1101,7 +1114,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>42931</v>
       </c>
@@ -1109,7 +1122,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>42962</v>
       </c>
@@ -1117,7 +1130,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>42993</v>
       </c>
@@ -1125,7 +1138,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>43023</v>
       </c>
@@ -1133,18 +1146,26 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>43054</v>
       </c>
       <c r="B15">
+        <v>5109.96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A16" s="1">
+        <v>43084</v>
+      </c>
+      <c r="B16">
         <v>5109.96</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/document/股票/贷款还款计划.xlsx
+++ b/document/股票/贷款还款计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="福顺尚景" sheetId="1" r:id="rId1"/>
@@ -557,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C48" sqref="C48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -986,6 +986,9 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
         <v>43090</v>
+      </c>
+      <c r="B48">
+        <v>1462.12</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.15">
@@ -1009,8 +1012,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/document/股票/贷款还款计划.xlsx
+++ b/document/股票/贷款还款计划.xlsx
@@ -558,7 +558,7 @@
   <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
+      <selection activeCell="B48" sqref="B48:B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -991,9 +991,12 @@
         <v>1462.12</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A49" s="1">
         <v>43121</v>
+      </c>
+      <c r="B49">
+        <v>1395.34</v>
       </c>
     </row>
   </sheetData>
@@ -1010,10 +1013,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:C6"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -1165,6 +1168,70 @@
         <v>5109.96</v>
       </c>
     </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="1">
+        <v>43115</v>
+      </c>
+      <c r="B17">
+        <v>5109.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="1">
+        <v>43146</v>
+      </c>
+      <c r="B18">
+        <v>5109.96</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="1">
+        <v>43174</v>
+      </c>
+      <c r="B19">
+        <v>5109.96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A20" s="1">
+        <v>43205</v>
+      </c>
+      <c r="B20">
+        <v>5109.96</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A21" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B21">
+        <v>5109.96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A22" s="1">
+        <v>43266</v>
+      </c>
+      <c r="B22">
+        <v>5109.96</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A23" s="1">
+        <v>43296</v>
+      </c>
+      <c r="B23">
+        <v>5109.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A24" s="1">
+        <v>43327</v>
+      </c>
+      <c r="B24">
+        <v>5109.96</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/document/股票/贷款还款计划.xlsx
+++ b/document/股票/贷款还款计划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="福顺尚景" sheetId="1" r:id="rId1"/>
@@ -555,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E59"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48:B49"/>
+    <sheetView showRuler="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -999,10 +999,63 @@
         <v>1395.34</v>
       </c>
     </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A50" s="1">
+        <v>43152</v>
+      </c>
+      <c r="B50">
+        <v>1392.07</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A51" s="1">
+        <v>43180</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A52" s="1">
+        <v>43211</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A53" s="1">
+        <v>43241</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A54" s="1">
+        <v>43272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A55" s="1">
+        <v>43302</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A56" s="1">
+        <v>43333</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A57" s="1">
+        <v>43364</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A58" s="1">
+        <v>43394</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A59" s="1">
+        <v>43425</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1015,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>

--- a/document/股票/贷款还款计划.xlsx
+++ b/document/股票/贷款还款计划.xlsx
@@ -1,151 +1,496 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mm\document\workspcaceYinker\ReadFile\document\股票\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="16065" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="福顺尚景" sheetId="1" r:id="rId1"/>
     <sheet name="涿州鸿坤理想湾" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
   <si>
     <t>日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20140122-20340122，20年,贷款49万.2020-01-23日全部还清,6年,总利息116635.53</t>
+  </si>
+  <si>
+    <t>协议号码:7451-1101-3228-4,利率6.8%,总贷款49万</t>
   </si>
   <si>
     <t>2013-11-23交的首付款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014-01-22申请贷款49万到账,20年</t>
   </si>
   <si>
     <t>2017-11-17提前还款25万,此时剩余38万多,还剩下13万多</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2014-01-22申请贷款49万到账,20年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是代办费用太贵,要1700左右,暂时先不交了，说全款后在办理产权可能会便宜</t>
+  </si>
+  <si>
+    <t>2017-11-17办理产权,在开发商那把9800的押金票换成代办的发票,</t>
+  </si>
+  <si>
+    <t>契税房价的1.5%,二套房契税要3%左右</t>
+  </si>
+  <si>
+    <t>2015-01-02利率调整为6.4575%</t>
   </si>
   <si>
     <t>提前还款25万,以及当月利息1536.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2017-11-17办理产权,在开发商那把9800的押金票换成代办的发票,</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>但是代办费用太贵,要1700左右,暂时先不交了，说全款后在办理产权可能会便宜</t>
+  </si>
+  <si>
+    <t>此时剩余13万左右,49-13-15万=11万,即45个月一共借款11万,粗略计算花费8万利息</t>
+  </si>
+  <si>
+    <t>按照3年计算利率:5.442%左右</t>
+  </si>
+  <si>
+    <t>公式:49万/(8万/3)</t>
+  </si>
+  <si>
+    <t>即8万/3年,表示d=平均每年利息金额</t>
+  </si>
+  <si>
+    <t>d/49万,表示平均每年利率</t>
+  </si>
+  <si>
+    <t>短信丢失,不知道还款具体金额,但是肯定也是在1392附近</t>
+  </si>
+  <si>
+    <t>提前还款完成,原因是办理全款发票,用于户口迁移和办理房本,节省中介费</t>
+  </si>
+  <si>
+    <t>6年,官方给的文件的总利息116635.53</t>
+  </si>
+  <si>
+    <t>按照6年计算利率:3.967%左右</t>
+  </si>
+  <si>
+    <t>公式:49万/（11万/6)</t>
+  </si>
+  <si>
+    <t>总还款求和</t>
+  </si>
+  <si>
+    <t>即11万/6年,表示d=平均每年利息金额,即19439,即别人给你49万，如果你能让其给2万利息,你就赢过银行利率</t>
+  </si>
+  <si>
+    <t>总结:</t>
+  </si>
+  <si>
+    <t>1.借款49万.利息11万多,借款6年</t>
+  </si>
+  <si>
+    <t>2.平均每年利息1.9万</t>
+  </si>
+  <si>
+    <t>3.按照49万的1%计算,是4900,</t>
+  </si>
+  <si>
+    <t>因此平均一年利息是3.967%</t>
+  </si>
+  <si>
+    <t>协议号码:8111-8202-0000</t>
+  </si>
+  <si>
+    <t>2016-08-26申请下来贷款91万到账,30年</t>
   </si>
   <si>
     <t>2016-10-15第一次要求还款</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2016-08-26申请下来贷款91万到账,30年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议号码:8111-8202-0000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>在没有降息,升息的时候,每个月都保持一致</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>契税房价的1.5%,二套房契税要3%左右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2015-01-02利率调整为6.4575%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>协议号码:7451-1101-3228-4,利率6.8%,总贷款49万</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>此时剩余13万左右,49-13-15万=11万,即45个月一共借款11万,粗略计算花费8万利息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>按照3年计算利率:20%左右</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="10"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="11"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -153,81 +498,312 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="29">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="29">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -549,29 +1125,29 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E59"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView showRuler="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B51" sqref="B51"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="74.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="72.625" customWidth="1"/>
+    <col min="4" max="4" width="74.5" customWidth="1"/>
+    <col min="5" max="5" width="35" customWidth="1"/>
+    <col min="6" max="6" width="25.25" customWidth="1"/>
+    <col min="7" max="7" width="19.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -581,8 +1157,11 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>41691</v>
       </c>
@@ -590,10 +1169,10 @@
         <v>4662.76</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>41719</v>
       </c>
@@ -601,10 +1180,10 @@
         <v>4838.28</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>41750</v>
       </c>
@@ -612,10 +1191,10 @@
         <v>4826.58</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>41780</v>
       </c>
@@ -623,13 +1202,13 @@
         <v>4814.88</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3">
       <c r="A6" s="1">
         <v>41811</v>
       </c>
@@ -637,29 +1216,29 @@
         <v>4803.18</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" s="1">
         <v>41841</v>
       </c>
       <c r="B7">
-        <v>4791.4799999999996</v>
+        <v>4791.48</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>41872</v>
       </c>
       <c r="B8">
-        <v>4779.7700000000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>4779.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>41903</v>
       </c>
@@ -667,7 +1246,7 @@
         <v>4768.07</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>41933</v>
       </c>
@@ -675,7 +1254,7 @@
         <v>4756.37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>41964</v>
       </c>
@@ -683,7 +1262,7 @@
         <v>4744.67</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>41994</v>
       </c>
@@ -691,7 +1270,7 @@
         <v>4732.97</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3">
       <c r="A13" s="1">
         <v>42025</v>
       </c>
@@ -699,26 +1278,26 @@
         <v>4617.63</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>42056</v>
       </c>
       <c r="B14">
-        <v>4546.6400000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+        <v>4546.64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>42084</v>
       </c>
       <c r="B15">
-        <v>4535.6499999999996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+        <v>4535.65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>42115</v>
       </c>
@@ -726,7 +1305,7 @@
         <v>4524.67</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>42145</v>
       </c>
@@ -734,15 +1313,15 @@
         <v>4513.68</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>42176</v>
       </c>
       <c r="B18">
-        <v>4502.6899999999996</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4502.69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>42206</v>
       </c>
@@ -750,7 +1329,7 @@
         <v>4491.71</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>42237</v>
       </c>
@@ -758,15 +1337,15 @@
         <v>4480.72</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>42268</v>
       </c>
       <c r="B21">
-        <v>4469.7299999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4469.73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>42298</v>
       </c>
@@ -774,7 +1353,7 @@
         <v>4458.75</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>42329</v>
       </c>
@@ -782,23 +1361,23 @@
         <v>4447.76</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>42359</v>
       </c>
       <c r="B24">
-        <v>4436.7700000000004</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4436.77</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" s="1">
         <v>42390</v>
       </c>
       <c r="B25">
-        <v>4118.8900000000003</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+        <v>4118.89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" s="1">
         <v>42421</v>
       </c>
@@ -806,7 +1385,7 @@
         <v>3932.46</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:2">
       <c r="A27" s="1">
         <v>42450</v>
       </c>
@@ -814,7 +1393,7 @@
         <v>3932.7</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:2">
       <c r="A28" s="1">
         <v>42481</v>
       </c>
@@ -822,7 +1401,7 @@
         <v>3914.95</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:2">
       <c r="A29" s="1">
         <v>42511</v>
       </c>
@@ -830,7 +1409,7 @@
         <v>3906.2</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:2">
       <c r="A30" s="1">
         <v>42542</v>
       </c>
@@ -838,7 +1417,7 @@
         <v>3897.44</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:2">
       <c r="A31" s="1">
         <v>42572</v>
       </c>
@@ -846,7 +1425,7 @@
         <v>3888.69</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:2">
       <c r="A32" s="1">
         <v>42603</v>
       </c>
@@ -854,7 +1433,7 @@
         <v>3879.94</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:2">
       <c r="A33" s="1">
         <v>42634</v>
       </c>
@@ -862,7 +1441,7 @@
         <v>3871.18</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:2">
       <c r="A34" s="1">
         <v>42664</v>
       </c>
@@ -870,7 +1449,7 @@
         <v>3862.43</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:2">
       <c r="A35" s="1">
         <v>42695</v>
       </c>
@@ -878,7 +1457,7 @@
         <v>3853.67</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:2">
       <c r="A36" s="1">
         <v>42725</v>
       </c>
@@ -886,7 +1465,7 @@
         <v>3844.92</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:2">
       <c r="A37" s="1">
         <v>42756</v>
       </c>
@@ -894,7 +1473,7 @@
         <v>3836.17</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:2">
       <c r="A38" s="1">
         <v>42787</v>
       </c>
@@ -902,7 +1481,7 @@
         <v>3827.41</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:2">
       <c r="A39" s="1">
         <v>42815</v>
       </c>
@@ -910,7 +1489,7 @@
         <v>3818.66</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:2">
       <c r="A40" s="1">
         <v>42846</v>
       </c>
@@ -918,7 +1497,7 @@
         <v>3809.91</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:2">
       <c r="A41" s="1">
         <v>42876</v>
       </c>
@@ -926,7 +1505,7 @@
         <v>3801.15</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:2">
       <c r="A42" s="1">
         <v>42907</v>
       </c>
@@ -934,7 +1513,7 @@
         <v>3792.4</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:2">
       <c r="A43" s="1">
         <v>42937</v>
       </c>
@@ -942,7 +1521,7 @@
         <v>3783.64</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:2">
       <c r="A44" s="1">
         <v>42968</v>
       </c>
@@ -950,7 +1529,7 @@
         <v>3774.89</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:2">
       <c r="A45" s="1">
         <v>42999</v>
       </c>
@@ -958,7 +1537,7 @@
         <v>3766.14</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:2">
       <c r="A46" s="1">
         <v>43029</v>
       </c>
@@ -966,7 +1545,7 @@
         <v>3757.38</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>43056</v>
       </c>
@@ -974,32 +1553,41 @@
         <v>251536.26</v>
       </c>
       <c r="C47" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D47" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>43090</v>
       </c>
       <c r="B48">
         <v>1462.12</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>43121</v>
       </c>
       <c r="B49">
         <v>1395.34</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="F49" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" s="1">
         <v>43152</v>
       </c>
@@ -1007,78 +1595,303 @@
         <v>1392.07</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A51" s="1">
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
         <v>43180</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A52" s="1">
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1">
+      <c r="A52" s="2">
         <v>43211</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A53" s="1">
+    <row r="53" spans="1:5">
+      <c r="A53" s="2">
         <v>43241</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="D53">
+        <v>490000</v>
+      </c>
+      <c r="E53">
+        <f>D54/D55</f>
+        <v>26666.6666666667</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" s="1">
         <v>43272</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B54">
+        <v>1378.97</v>
+      </c>
+      <c r="D54">
+        <v>80000</v>
+      </c>
+      <c r="E54">
+        <f>E53/D53</f>
+        <v>0.054421768707483</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>43302</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B55">
+        <v>1375.7</v>
+      </c>
+      <c r="D55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" s="1">
         <v>43333</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B56">
+        <v>1372.43</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" s="1">
         <v>43364</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B57">
+        <v>1369.15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" s="1">
         <v>43394</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="B58">
+        <v>1365.88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="1">
         <v>43425</v>
       </c>
+      <c r="B59">
+        <v>1362.61</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" s="1">
+        <v>43455</v>
+      </c>
+      <c r="B60">
+        <v>1359.33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="1">
+        <v>43486</v>
+      </c>
+      <c r="B61">
+        <v>1356.06</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" s="1">
+        <v>43517</v>
+      </c>
+      <c r="B62">
+        <v>1352.78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" s="1">
+        <v>43545</v>
+      </c>
+      <c r="B63">
+        <v>1349.51</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" s="1">
+        <v>43576</v>
+      </c>
+      <c r="B64">
+        <v>1346.24</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" s="1">
+        <v>43606</v>
+      </c>
+      <c r="B65">
+        <v>1342.96</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="1">
+        <v>43637</v>
+      </c>
+      <c r="B66">
+        <v>1339.69</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" s="1">
+        <v>43667</v>
+      </c>
+      <c r="B67">
+        <v>1336.42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" s="1">
+        <v>43698</v>
+      </c>
+      <c r="B68">
+        <v>1333.14</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" s="1">
+        <v>43729</v>
+      </c>
+      <c r="B69">
+        <v>1329.87</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" s="1">
+        <v>43759</v>
+      </c>
+      <c r="B70">
+        <v>1326.6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="1">
+        <v>43790</v>
+      </c>
+      <c r="B71">
+        <v>1323.32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" s="1">
+        <v>43820</v>
+      </c>
+      <c r="B72">
+        <v>1320.05</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" s="1">
+        <v>43850</v>
+      </c>
+      <c r="B73">
+        <v>1316.77</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B74">
+        <v>128328.07</v>
+      </c>
+      <c r="C74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" t="s">
+        <v>23</v>
+      </c>
+      <c r="B75">
+        <f>SUM(B2:B74)</f>
+        <v>602487.97</v>
+      </c>
+      <c r="F75" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" spans="6:6">
+      <c r="F76" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5">
+      <c r="C78">
+        <v>490000</v>
+      </c>
+      <c r="E78" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5">
+      <c r="C79">
+        <v>116635.53</v>
+      </c>
+      <c r="D79">
+        <f>C79/C80</f>
+        <v>19439.255</v>
+      </c>
+      <c r="E79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5">
+      <c r="C80">
+        <v>6</v>
+      </c>
+      <c r="D80">
+        <f>D79/C78</f>
+        <v>0.0396719489795918</v>
+      </c>
+      <c r="E80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="5:5">
+      <c r="E81" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="82" spans="5:5">
+      <c r="E82" t="s">
+        <v>29</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="36.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1089,7 +1902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3">
       <c r="A2" s="1">
         <v>42658</v>
       </c>
@@ -1097,10 +1910,10 @@
         <v>7017.42</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
       <c r="A3" s="1">
         <v>42689</v>
       </c>
@@ -1108,10 +1921,10 @@
         <v>5109.96</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
       <c r="A4" s="1">
         <v>42719</v>
       </c>
@@ -1119,10 +1932,10 @@
         <v>5109.96</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>42750</v>
       </c>
@@ -1130,10 +1943,10 @@
         <v>5109.96</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" s="1">
         <v>42781</v>
       </c>
@@ -1141,7 +1954,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:2">
       <c r="A7" s="1">
         <v>42809</v>
       </c>
@@ -1149,7 +1962,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="1">
         <v>42840</v>
       </c>
@@ -1157,7 +1970,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:2">
       <c r="A9" s="1">
         <v>42870</v>
       </c>
@@ -1165,7 +1978,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:2">
       <c r="A10" s="1">
         <v>42901</v>
       </c>
@@ -1173,7 +1986,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="1">
         <v>42931</v>
       </c>
@@ -1181,7 +1994,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="1">
         <v>42962</v>
       </c>
@@ -1189,7 +2002,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="1">
         <v>42993</v>
       </c>
@@ -1197,7 +2010,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="1">
         <v>43023</v>
       </c>
@@ -1205,7 +2018,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="1">
         <v>43054</v>
       </c>
@@ -1213,7 +2026,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="1">
         <v>43084</v>
       </c>
@@ -1221,7 +2034,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="1">
         <v>43115</v>
       </c>
@@ -1229,7 +2042,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="1">
         <v>43146</v>
       </c>
@@ -1237,7 +2050,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="1">
         <v>43174</v>
       </c>
@@ -1245,7 +2058,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:2">
       <c r="A20" s="1">
         <v>43205</v>
       </c>
@@ -1253,7 +2066,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="1">
         <v>43235</v>
       </c>
@@ -1261,7 +2074,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:2">
       <c r="A22" s="1">
         <v>43266</v>
       </c>
@@ -1269,7 +2082,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:2">
       <c r="A23" s="1">
         <v>43296</v>
       </c>
@@ -1277,7 +2090,7 @@
         <v>5109.96</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:2">
       <c r="A24" s="1">
         <v>43327</v>
       </c>
@@ -1286,13 +2099,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/document/股票/贷款还款计划.xlsx
+++ b/document/股票/贷款还款计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="500"/>
+    <workbookView windowHeight="16420" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="福顺尚景" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>日期</t>
   </si>
@@ -117,6 +117,12 @@
   </si>
   <si>
     <t>在没有降息,升息的时候,每个月都保持一致</t>
+  </si>
+  <si>
+    <t>4800+</t>
+  </si>
+  <si>
+    <t>20231025日调整LPR+0个基点，利率4.2%</t>
   </si>
 </sst>
 </file>
@@ -124,10 +130,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -146,7 +152,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -155,12 +161,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,14 +183,15 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -204,21 +211,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -235,8 +227,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,45 +296,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -305,13 +311,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,49 +461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -377,19 +473,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,91 +491,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,17 +505,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,11 +547,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,15 +569,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,165 +588,165 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -751,54 +757,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
@@ -1133,11 +1139,11 @@
   <sheetPr/>
   <dimension ref="A1:F82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="72.625" customWidth="1"/>
@@ -1879,13 +1885,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="36.5" customWidth="1"/>
@@ -2098,6 +2104,17 @@
         <v>5109.96</v>
       </c>
     </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>20231115</v>
+      </c>
+      <c r="B25" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/document/股票/贷款还款计划.xlsx
+++ b/document/股票/贷款还款计划.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
   <si>
     <t>日期</t>
   </si>
@@ -117,9 +117,6 @@
   </si>
   <si>
     <t>在没有降息,升息的时候,每个月都保持一致</t>
-  </si>
-  <si>
-    <t>4800+</t>
   </si>
   <si>
     <t>20231025日调整LPR+0个基点，利率4.2%</t>
@@ -131,9 +128,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -152,13 +149,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -172,24 +162,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -211,6 +185,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -220,7 +201,76 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -235,45 +285,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -285,22 +298,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -323,25 +320,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,49 +440,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -407,91 +488,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -502,24 +499,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -542,32 +521,15 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -588,6 +550,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -602,151 +575,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1888,7 +1885,7 @@
   <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -2108,11 +2105,11 @@
       <c r="A25">
         <v>20231115</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25">
+        <v>4850</v>
+      </c>
+      <c r="C25" t="s">
         <v>34</v>
-      </c>
-      <c r="C25" t="s">
-        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/document/股票/贷款还款计划.xlsx
+++ b/document/股票/贷款还款计划.xlsx
@@ -128,8 +128,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -162,18 +162,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -186,54 +179,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,14 +201,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -264,6 +209,67 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -279,21 +285,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -314,181 +314,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -499,6 +499,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -513,65 +522,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,151 +549,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1882,10 +1882,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -2112,6 +2112,19 @@
         <v>34</v>
       </c>
     </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>20231215</v>
+      </c>
+      <c r="B26">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27">
+        <v>20240115</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait"/>
